--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:34:35+00:00</t>
+    <t>2022-11-28T14:50:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T14:50:55+00:00</t>
+    <t>2022-11-29T10:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T10:15:59+00:00</t>
+    <t>2022-11-29T13:15:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T13:15:00+00:00</t>
+    <t>2022-11-29T13:37:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -9,14 +9,11 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$44</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="458">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T13:37:45+00:00</t>
+    <t>2022-11-29T14:53:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -855,7 +852,7 @@
     <t>ServiceRequest.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group|Location|Device)
+    <t xml:space="preserve">Reference(Patient)
 </t>
   </si>
   <si>
@@ -1311,11 +1308,108 @@
     <t>ClinicalStatement.additionalText</t>
   </si>
   <si>
-    <t>ServiceRequest.patientInstruction</t>
+    <t>ServiceRequest.note.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>ServiceRequest.note.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.note.author[x]</t>
+  </si>
+  <si>
+    <t>Reference(Practitioner|Patient|RelatedPerson|Organization)
+string</t>
+  </si>
+  <si>
+    <t>Individual responsible for the annotation</t>
+  </si>
+  <si>
+    <t>The individual responsible for making the annotation.</t>
+  </si>
+  <si>
+    <t>Organization is used when there's no need for specific attribution as to who made the comment.</t>
+  </si>
+  <si>
+    <t>Annotation.author[x]</t>
+  </si>
+  <si>
+    <t>Act.participant[typeCode=AUT].role</t>
+  </si>
+  <si>
+    <t>authorReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>ServiceRequest.note.time</t>
+  </si>
+  <si>
+    <t>When the annotation was made</t>
+  </si>
+  <si>
+    <t>Indicates when this particular annotation was made.</t>
+  </si>
+  <si>
+    <t>Annotation.time</t>
+  </si>
+  <si>
+    <t>Act.effectiveTime</t>
+  </si>
+  <si>
+    <t>ServiceRequest.note.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">markdown
+</t>
+  </si>
+  <si>
+    <t>The annotation  - text content (as markdown)</t>
+  </si>
+  <si>
+    <t>The text of the annotation in markdown format.</t>
+  </si>
+  <si>
+    <t>Annotation.text</t>
+  </si>
+  <si>
+    <t>Act.text</t>
+  </si>
+  <si>
+    <t>ServiceRequest.patientInstruction</t>
   </si>
   <si>
     <t>Patient or consumer-oriented instructions</t>
@@ -1477,21 +1571,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1668,7 +1747,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN44"/>
+  <dimension ref="A1:AN50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1704,7 +1783,7 @@
     <col min="25" max="25" width="104.18359375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="35.71484375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1841,7 +1920,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>29</v>
       </c>
@@ -1953,7 +2032,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>85</v>
       </c>
@@ -2067,7 +2146,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>93</v>
       </c>
@@ -2179,7 +2258,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>99</v>
       </c>
@@ -2293,7 +2372,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>105</v>
       </c>
@@ -2407,7 +2486,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>114</v>
       </c>
@@ -2521,7 +2600,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>122</v>
       </c>
@@ -2635,7 +2714,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>130</v>
       </c>
@@ -2749,7 +2828,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>138</v>
       </c>
@@ -2881,7 +2960,7 @@
         <v>86</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>79</v>
@@ -2979,7 +3058,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>153</v>
       </c>
@@ -3093,7 +3172,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>161</v>
       </c>
@@ -3207,7 +3286,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>166</v>
       </c>
@@ -3319,7 +3398,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>174</v>
       </c>
@@ -3431,7 +3510,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>182</v>
       </c>
@@ -3563,7 +3642,7 @@
         <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>87</v>
@@ -3661,7 +3740,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>203</v>
       </c>
@@ -3775,7 +3854,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>213</v>
       </c>
@@ -3891,7 +3970,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>224</v>
       </c>
@@ -4021,7 +4100,7 @@
         <v>86</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>87</v>
@@ -4133,13 +4212,13 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>79</v>
@@ -4235,7 +4314,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>254</v>
       </c>
@@ -4349,7 +4428,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>263</v>
       </c>
@@ -4479,7 +4558,7 @@
         <v>86</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
@@ -4591,7 +4670,7 @@
         <v>86</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -4687,7 +4766,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>288</v>
       </c>
@@ -4815,7 +4894,7 @@
         <v>86</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
@@ -4911,7 +4990,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>301</v>
       </c>
@@ -5023,7 +5102,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>309</v>
       </c>
@@ -5145,13 +5224,13 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>79</v>
@@ -5249,7 +5328,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>329</v>
       </c>
@@ -5363,7 +5442,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>340</v>
       </c>
@@ -5477,7 +5556,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>349</v>
       </c>
@@ -5599,13 +5678,13 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
@@ -5711,13 +5790,13 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -5813,7 +5892,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>368</v>
       </c>
@@ -5927,7 +6006,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
         <v>376</v>
       </c>
@@ -6039,7 +6118,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>383</v>
       </c>
@@ -6169,7 +6248,7 @@
         <v>86</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6267,7 +6346,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
         <v>399</v>
       </c>
@@ -6396,10 +6475,10 @@
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
@@ -6495,7 +6574,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
         <v>415</v>
       </c>
@@ -6517,7 +6596,7 @@
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>416</v>
@@ -6577,7 +6656,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6589,16 +6668,16 @@
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>262</v>
+        <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
@@ -6607,13 +6686,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6632,16 +6711,16 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>421</v>
+        <v>132</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="L44" t="s" s="2">
-        <v>423</v>
-      </c>
       <c r="M44" t="s" s="2">
-        <v>424</v>
+        <v>135</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6679,19 +6758,19 @@
         <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>79</v>
+        <v>423</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>79</v>
+        <v>424</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>79</v>
+        <v>425</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6703,43 +6782,703 @@
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AB45" s="2"/>
+      <c r="AC45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI45" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ44" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="AK44" t="s" s="2">
+      <c r="AJ45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="AL44" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN44" t="s" s="2">
+      <c r="AL45" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN44">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI43">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T14:53:02+00:00</t>
+    <t>2022-11-29T15:19:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T15:19:30+00:00</t>
+    <t>2022-11-29T15:46:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T15:46:25+00:00</t>
+    <t>2022-11-29T16:13:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T16:13:33+00:00</t>
+    <t>2022-11-29T16:38:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T16:38:35+00:00</t>
+    <t>2022-11-29T17:19:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T17:19:52+00:00</t>
+    <t>2022-11-30T05:48:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T05:48:35+00:00</t>
+    <t>2022-11-30T06:10:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T06:10:32+00:00</t>
+    <t>2022-11-30T06:30:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T06:30:25+00:00</t>
+    <t>2022-11-30T07:44:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T07:44:48+00:00</t>
+    <t>2022-11-30T09:05:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -36,7 +36,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Covid19LabOrder</t>
+    <t>Covid19ServiceRequest</t>
   </si>
   <si>
     <t>Title</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T09:05:55+00:00</t>
+    <t>2022-11-30T11:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T11:29:51+00:00</t>
+    <t>2022-11-30T11:53:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T11:53:49+00:00</t>
+    <t>2022-11-30T12:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T12:56:54+00:00</t>
+    <t>2022-11-30T13:39:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T13:39:19+00:00</t>
+    <t>2022-11-30T14:25:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T14:25:57+00:00</t>
+    <t>2022-12-01T06:22:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:22:50+00:00</t>
+    <t>2022-12-01T06:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:30:49+00:00</t>
+    <t>2022-12-01T06:43:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:43:04+00:00</t>
+    <t>2022-12-01T06:55:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:55:13+00:00</t>
+    <t>2022-12-01T07:05:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T07:05:23+00:00</t>
+    <t>2022-12-01T07:37:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T07:37:38+00:00</t>
+    <t>2022-12-01T08:15:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T08:15:41+00:00</t>
+    <t>2022-12-01T08:22:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T08:22:41+00:00</t>
+    <t>2022-12-01T08:50:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T08:50:08+00:00</t>
+    <t>2022-12-01T09:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T09:02:26+00:00</t>
+    <t>2022-12-01T09:20:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T09:20:32+00:00</t>
+    <t>2022-12-01T09:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T09:36:28+00:00</t>
+    <t>2022-12-01T10:00:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2225" uniqueCount="518">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:00:58+00:00</t>
+    <t>2022-12-01T10:50:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1145,19 +1145,232 @@
     <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
   </si>
   <si>
+    <t>Diagnosis or problem codes justifying the reason for requesting the service investigation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/procedure-reason</t>
+  </si>
+  <si>
+    <t>Request.reasonCode</t>
+  </si>
+  <si>
+    <t>ORC.16, RF1-10</t>
+  </si>
+  <si>
+    <t>.reasonCode</t>
+  </si>
+  <si>
+    <t>FiveWs.why[x]</t>
+  </si>
+  <si>
+    <t>ServiceRequest.reasonCode.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>ServiceRequest.reasonCode.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.reasonCode.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>ServiceRequest.reasonCode.coding.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.reasonCode.coding.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.reasonCode.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>ServiceRequest.reasonCode.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>ServiceRequest.reasonCode.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
     <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-covid19-reason-for-assessment-or-test-not-performed</t>
   </si>
   <si>
-    <t>Request.reasonCode</t>
-  </si>
-  <si>
-    <t>ORC.16, RF1-10</t>
-  </si>
-  <si>
-    <t>.reasonCode</t>
-  </si>
-  <si>
-    <t>FiveWs.why[x]</t>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>ServiceRequest.reasonCode.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>ServiceRequest.reasonCode.coding.userSelected</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>ServiceRequest.reasonCode.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>ServiceRequest.reasonReference</t>
@@ -1311,39 +1524,7 @@
     <t>ServiceRequest.note.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>ServiceRequest.note.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>ServiceRequest.note.author[x]</t>
@@ -1747,7 +1928,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN50"/>
+  <dimension ref="A1:AN61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1756,7 +1937,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.71484375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.109375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="20.203125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -5840,11 +6021,13 @@
         <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="X36" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="Y36" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
@@ -5877,16 +6060,16 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -5894,7 +6077,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5905,7 +6088,7 @@
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>79</v>
@@ -5914,20 +6097,18 @@
         <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M37" t="s" s="2">
         <v>372</v>
       </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -5976,31 +6157,31 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>373</v>
+        <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AL37" t="s" s="2">
-        <v>375</v>
-      </c>
       <c r="AM37" t="s" s="2">
-        <v>367</v>
+        <v>79</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6008,11 +6189,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6031,15 +6212,17 @@
         <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>377</v>
+        <v>132</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>378</v>
+        <v>133</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>79</v>
@@ -6076,19 +6259,19 @@
         <v>79</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>79</v>
+        <v>377</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>79</v>
+        <v>378</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>79</v>
+        <v>379</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6100,16 +6283,16 @@
         <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>380</v>
+        <v>79</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>381</v>
+        <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6120,11 +6303,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>384</v>
+        <v>79</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6140,21 +6323,23 @@
         <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6202,7 +6387,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6217,13 +6402,13 @@
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6234,7 +6419,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6242,7 +6427,7 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>86</v>
@@ -6254,20 +6439,18 @@
         <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -6316,28 +6499,28 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>397</v>
+        <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6348,11 +6531,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>400</v>
+        <v>131</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6368,23 +6551,21 @@
         <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>214</v>
+        <v>132</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>401</v>
+        <v>133</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>402</v>
+        <v>376</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6408,31 +6589,31 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>405</v>
+        <v>79</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>79</v>
+        <v>377</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>79</v>
+        <v>378</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>79</v>
+        <v>379</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6444,27 +6625,27 @@
         <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>397</v>
+        <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>408</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6484,19 +6665,23 @@
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>410</v>
+        <v>100</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>48</v>
+        <v>393</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6544,13 +6729,13 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
@@ -6559,24 +6744,24 @@
         <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>412</v>
+        <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>262</v>
+        <v>398</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>414</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6596,18 +6781,20 @@
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>416</v>
+        <v>370</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
@@ -6656,7 +6843,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6668,16 +6855,16 @@
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>79</v>
+        <v>405</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
@@ -6688,18 +6875,18 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>79</v>
@@ -6708,21 +6895,21 @@
         <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>133</v>
+        <v>408</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
@@ -6746,52 +6933,50 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="X44" s="2"/>
       <c r="Y44" t="s" s="2">
-        <v>79</v>
+        <v>411</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>423</v>
+        <v>79</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>424</v>
+        <v>79</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>425</v>
+        <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>79</v>
+        <v>413</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
@@ -6802,7 +6987,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6825,18 +7010,18 @@
         <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>428</v>
+        <v>370</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -6872,17 +7057,19 @@
         <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AB45" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>425</v>
+        <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -6900,10 +7087,10 @@
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>129</v>
+        <v>420</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -6914,11 +7101,9 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
         <v>79</v>
       </c>
@@ -6939,18 +7124,20 @@
         <v>87</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>435</v>
+        <v>235</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
@@ -6998,7 +7185,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7016,10 +7203,10 @@
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>129</v>
+        <v>428</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7030,7 +7217,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7053,16 +7240,20 @@
         <v>87</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>290</v>
+        <v>370</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7110,7 +7301,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7128,10 +7319,10 @@
         <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>129</v>
+        <v>436</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7142,7 +7333,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7150,10 +7341,10 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>79</v>
@@ -7165,15 +7356,17 @@
         <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="K48" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7222,13 +7415,13 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
@@ -7237,16 +7430,16 @@
         <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>79</v>
+        <v>443</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>129</v>
+        <v>444</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>79</v>
+        <v>368</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
@@ -7254,7 +7447,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7265,7 +7458,7 @@
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>79</v>
@@ -7274,10 +7467,10 @@
         <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>416</v>
+        <v>447</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>448</v>
@@ -7334,13 +7527,13 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>79</v>
@@ -7349,13 +7542,13 @@
         <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>79</v>
+        <v>450</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>262</v>
+        <v>451</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7366,11 +7559,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>79</v>
+        <v>454</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7389,16 +7582,16 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7448,7 +7641,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7463,18 +7656,1264 @@
         <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AB56" s="2"/>
+      <c r="AC56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK56" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="AL50" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN50" t="s" s="2">
+      <c r="AL56" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>79</v>
       </c>
     </row>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2225" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="531">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:50:29+00:00</t>
+    <t>2022-12-01T10:57:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -783,22 +783,235 @@
     <t>Many laboratory and radiology procedure codes embed the specimen/organ system in the test order name, for example,  serum or serum/plasma glucose, or a chest x-ray. The specimen might not be recorded separately from the test code.</t>
   </si>
   <si>
+    <t>Codes for tests or services that can be carried out by a designated individual, organization or healthcare service.  For laboratory, LOINC is  (preferred)[http://build.fhir.org/terminologies.html#preferred] and a valueset using LOINC Order codes is available [here](valueset-diagnostic-requests.html).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/procedure-code</t>
+  </si>
+  <si>
+    <t>Request.code</t>
+  </si>
+  <si>
+    <t>PR1-3 / OBR-4  (varies by domain)</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>Procedure.procedureCode</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.coding.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.coding.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
     <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-test-types</t>
   </si>
   <si>
-    <t>Request.code</t>
-  </si>
-  <si>
-    <t>PR1-3 / OBR-4  (varies by domain)</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>Procedure.procedureCode</t>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>ServiceRequest.orderDetail</t>
@@ -1166,69 +1379,12 @@
     <t>ServiceRequest.reasonCode.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>ServiceRequest.reasonCode.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
     <t>ServiceRequest.reasonCode.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
     <t>ServiceRequest.reasonCode.coding.id</t>
   </si>
   <si>
@@ -1238,139 +1394,22 @@
     <t>ServiceRequest.reasonCode.coding.system</t>
   </si>
   <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
     <t>ServiceRequest.reasonCode.coding.version</t>
   </si>
   <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
     <t>ServiceRequest.reasonCode.coding.code</t>
   </si>
   <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
     <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-covid19-reason-for-assessment-or-test-not-performed</t>
   </si>
   <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
     <t>ServiceRequest.reasonCode.coding.display</t>
   </si>
   <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
     <t>ServiceRequest.reasonCode.coding.userSelected</t>
   </si>
   <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
     <t>ServiceRequest.reasonCode.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>ServiceRequest.reasonReference</t>
@@ -1928,7 +1967,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN61"/>
+  <dimension ref="A1:AN72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1960,7 +1999,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="126.34765625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="255.0" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="104.18359375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
@@ -4443,11 +4482,13 @@
         <v>79</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="X22" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="Y22" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>79</v>
@@ -4480,35 +4521,35 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>79</v>
@@ -4517,20 +4558,18 @@
         <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M23" t="s" s="2">
         <v>258</v>
       </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>79</v>
@@ -4555,74 +4594,74 @@
         <v>79</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="Y23" t="s" s="2">
+      <c r="AF23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="Z23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>251</v>
-      </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>79</v>
@@ -4631,21 +4670,21 @@
         <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>264</v>
+        <v>132</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>265</v>
+        <v>133</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4681,40 +4720,40 @@
         <v>79</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>79</v>
+        <v>265</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>262</v>
+        <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -4725,7 +4764,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4733,10 +4772,10 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>79</v>
@@ -4748,16 +4787,20 @@
         <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -4805,13 +4848,13 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>79</v>
@@ -4820,7 +4863,7 @@
         <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>273</v>
+        <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>274</v>
@@ -4829,23 +4872,23 @@
         <v>275</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>276</v>
+        <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>277</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>279</v>
+        <v>79</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>86</v>
@@ -4857,16 +4900,16 @@
         <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4917,7 +4960,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4929,38 +4972,38 @@
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>283</v>
+        <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>284</v>
+        <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>287</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>289</v>
+        <v>131</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>79</v>
@@ -4969,18 +5012,20 @@
         <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>290</v>
+        <v>132</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>291</v>
+        <v>133</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5017,59 +5062,59 @@
         <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AB27" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="AC27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>295</v>
+        <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>296</v>
+        <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>298</v>
+        <v>79</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>299</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>289</v>
+        <v>79</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>86</v>
@@ -5084,16 +5129,20 @@
         <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>290</v>
+        <v>100</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5141,7 +5190,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5156,24 +5205,24 @@
         <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>295</v>
+        <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>298</v>
+        <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>299</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5196,15 +5245,17 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>302</v>
+        <v>256</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5229,13 +5280,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>305</v>
+        <v>79</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>306</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5253,7 +5304,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5271,25 +5322,25 @@
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>79</v>
+        <v>291</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>308</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>310</v>
+        <v>79</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5308,16 +5359,18 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>290</v>
+        <v>106</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+      <c r="N30" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5341,13 +5394,11 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="X30" s="2"/>
       <c r="Y30" t="s" s="2">
-        <v>79</v>
+        <v>297</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5365,7 +5416,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5380,32 +5431,32 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>313</v>
+        <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>316</v>
+        <v>79</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>317</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>319</v>
+        <v>79</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>86</v>
@@ -5420,18 +5471,18 @@
         <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>320</v>
+        <v>256</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
@@ -5479,7 +5530,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5494,28 +5545,28 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>324</v>
+        <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>327</v>
+        <v>79</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>328</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>330</v>
+        <v>79</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5534,18 +5585,20 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
@@ -5569,13 +5622,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>334</v>
+        <v>79</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>335</v>
+        <v>79</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -5593,7 +5646,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5608,16 +5661,16 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>336</v>
+        <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>339</v>
+        <v>79</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -5625,18 +5678,18 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>341</v>
+        <v>79</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>79</v>
@@ -5648,18 +5701,20 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>342</v>
+        <v>256</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
       </c>
@@ -5707,13 +5762,13 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>79</v>
@@ -5722,16 +5777,16 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>346</v>
+        <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>339</v>
+        <v>79</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -5739,11 +5794,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>79</v>
+        <v>325</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5765,12 +5820,14 @@
         <v>214</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -5798,10 +5855,10 @@
         <v>219</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>79</v>
@@ -5819,7 +5876,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5828,7 +5885,7 @@
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>331</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>98</v>
@@ -5837,21 +5894,21 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>79</v>
+        <v>332</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>354</v>
+        <v>252</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>339</v>
+        <v>79</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5859,7 +5916,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>86</v>
@@ -5874,16 +5931,18 @@
         <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+      <c r="N35" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>79</v>
       </c>
@@ -5931,13 +5990,13 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -5949,13 +6008,13 @@
         <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>79</v>
+        <v>332</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>339</v>
+        <v>79</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -5963,7 +6022,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5971,10 +6030,10 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>79</v>
@@ -5986,17 +6045,15 @@
         <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>214</v>
+        <v>340</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>79</v>
@@ -6021,13 +6078,13 @@
         <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>363</v>
+        <v>79</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>364</v>
+        <v>79</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
@@ -6045,13 +6102,13 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>79</v>
@@ -6060,32 +6117,32 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>79</v>
+        <v>347</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>79</v>
+        <v>349</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>86</v>
@@ -6097,16 +6154,16 @@
         <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6157,7 +6214,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6169,38 +6226,38 @@
         <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>79</v>
+        <v>353</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>79</v>
+        <v>356</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>79</v>
+        <v>357</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>131</v>
+        <v>359</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>79</v>
@@ -6209,20 +6266,18 @@
         <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>132</v>
+        <v>360</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>133</v>
+        <v>361</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>79</v>
@@ -6259,62 +6314,62 @@
         <v>79</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="AB38" s="2"/>
       <c r="AC38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>79</v>
+        <v>366</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>79</v>
+        <v>368</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>79</v>
+        <v>369</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="B39" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="C39" t="s" s="2">
-        <v>79</v>
+        <v>359</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>79</v>
@@ -6326,20 +6381,16 @@
         <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6387,13 +6438,13 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>387</v>
+        <v>358</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6402,24 +6453,24 @@
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>79</v>
+        <v>368</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>79</v>
+        <v>369</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6439,16 +6490,16 @@
         <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6475,13 +6526,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>79</v>
+        <v>375</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>79</v>
+        <v>376</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6499,7 +6550,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6511,7 +6562,7 @@
         <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>79</v>
@@ -6520,29 +6571,29 @@
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>79</v>
+        <v>378</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>131</v>
+        <v>380</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>79</v>
@@ -6551,20 +6602,18 @@
         <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>132</v>
+        <v>360</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>133</v>
+        <v>381</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>79</v>
@@ -6601,59 +6650,59 @@
         <v>79</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>377</v>
+        <v>79</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>378</v>
+        <v>79</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE41" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AE41" t="s" s="2">
-        <v>380</v>
-      </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>79</v>
+        <v>383</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>79</v>
+        <v>384</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>79</v>
+        <v>386</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>79</v>
+        <v>387</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>79</v>
+        <v>389</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>86</v>
@@ -6668,20 +6717,18 @@
         <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>100</v>
+        <v>390</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>396</v>
-      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6729,7 +6776,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6744,28 +6791,28 @@
         <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>79</v>
+        <v>394</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>79</v>
+        <v>400</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6784,7 +6831,7 @@
         <v>87</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>370</v>
+        <v>214</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>401</v>
@@ -6819,13 +6866,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>79</v>
+        <v>404</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>79</v>
+        <v>405</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -6843,7 +6890,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6858,16 +6905,16 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>79</v>
+        <v>406</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>79</v>
+        <v>409</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -6875,18 +6922,18 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>79</v>
+        <v>411</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>79</v>
@@ -6898,18 +6945,18 @@
         <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>106</v>
+        <v>412</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
@@ -6933,11 +6980,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="X44" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y44" t="s" s="2">
-        <v>411</v>
+        <v>79</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -6955,13 +7004,13 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
@@ -6970,16 +7019,16 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>79</v>
+        <v>416</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>79</v>
+        <v>409</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -6987,7 +7036,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6998,7 +7047,7 @@
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>79</v>
@@ -7010,18 +7059,16 @@
         <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>370</v>
+        <v>214</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="M45" s="2"/>
-      <c r="N45" t="s" s="2">
-        <v>418</v>
-      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7045,13 +7092,13 @@
         <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>79</v>
+        <v>422</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>79</v>
+        <v>423</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>79</v>
@@ -7075,7 +7122,7 @@
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
@@ -7087,13 +7134,13 @@
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>420</v>
+        <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>79</v>
+        <v>409</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7101,7 +7148,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7109,7 +7156,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>86</v>
@@ -7124,20 +7171,16 @@
         <v>87</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>235</v>
+        <v>426</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7185,13 +7228,13 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
@@ -7203,13 +7246,13 @@
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="AL46" t="s" s="2">
-        <v>429</v>
-      </c>
       <c r="AM46" t="s" s="2">
-        <v>79</v>
+        <v>409</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7217,7 +7260,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7228,7 +7271,7 @@
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7240,20 +7283,18 @@
         <v>87</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>370</v>
+        <v>214</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="M47" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>434</v>
-      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7277,13 +7318,13 @@
         <v>79</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>79</v>
@@ -7301,13 +7342,13 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
@@ -7316,7 +7357,7 @@
         <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>436</v>
@@ -7325,7 +7366,7 @@
         <v>437</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>79</v>
+        <v>438</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7333,7 +7374,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7344,7 +7385,7 @@
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>79</v>
@@ -7353,20 +7394,18 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>439</v>
+        <v>256</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>440</v>
+        <v>257</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>442</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7415,31 +7454,31 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>438</v>
+        <v>259</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>443</v>
+        <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>444</v>
+        <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>445</v>
+        <v>260</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>368</v>
+        <v>79</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
@@ -7447,11 +7486,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7470,15 +7509,17 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>447</v>
+        <v>132</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>448</v>
+        <v>133</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -7515,19 +7556,19 @@
         <v>79</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>79</v>
+        <v>265</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>446</v>
+        <v>266</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7539,16 +7580,16 @@
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>450</v>
+        <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>451</v>
+        <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>452</v>
+        <v>260</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7559,11 +7600,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>454</v>
+        <v>79</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7579,21 +7620,23 @@
         <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>455</v>
+        <v>268</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>456</v>
+        <v>269</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>457</v>
+        <v>270</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
@@ -7641,7 +7684,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>453</v>
+        <v>273</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7656,13 +7699,13 @@
         <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>459</v>
+        <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>460</v>
+        <v>274</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>461</v>
+        <v>275</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -7673,7 +7716,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7681,7 +7724,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>86</v>
@@ -7693,20 +7736,18 @@
         <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>463</v>
+        <v>256</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>464</v>
+        <v>257</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>466</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -7755,28 +7796,28 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>462</v>
+        <v>259</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>467</v>
+        <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>468</v>
+        <v>260</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -7787,11 +7828,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>469</v>
+        <v>443</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>470</v>
+        <v>131</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7807,23 +7848,21 @@
         <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>214</v>
+        <v>132</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>471</v>
+        <v>133</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>472</v>
+        <v>262</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>474</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>79</v>
       </c>
@@ -7847,31 +7886,31 @@
         <v>79</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>475</v>
+        <v>79</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>476</v>
+        <v>79</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>79</v>
+        <v>265</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>469</v>
+        <v>266</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7883,27 +7922,27 @@
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>467</v>
+        <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>477</v>
+        <v>260</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>478</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>479</v>
+        <v>444</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7923,19 +7962,23 @@
         <v>79</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>480</v>
+        <v>100</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>48</v>
+        <v>279</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
       </c>
@@ -7983,13 +8026,13 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>479</v>
+        <v>283</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>79</v>
@@ -7998,24 +8041,24 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>482</v>
+        <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>483</v>
+        <v>285</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>484</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>485</v>
+        <v>445</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8035,18 +8078,20 @@
         <v>79</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>370</v>
+        <v>256</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>371</v>
+        <v>287</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8095,7 +8140,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>373</v>
+        <v>290</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8107,16 +8152,16 @@
         <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>79</v>
+        <v>291</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>374</v>
+        <v>292</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8127,18 +8172,18 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>486</v>
+        <v>446</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>79</v>
@@ -8147,21 +8192,21 @@
         <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>133</v>
+        <v>294</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8185,52 +8230,50 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>79</v>
+        <v>447</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>377</v>
+        <v>79</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>378</v>
+        <v>79</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>380</v>
+        <v>298</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>79</v>
+        <v>299</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>374</v>
+        <v>300</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8241,7 +8284,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>487</v>
+        <v>448</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8264,18 +8307,18 @@
         <v>87</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>488</v>
+        <v>256</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>489</v>
+        <v>302</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8311,17 +8354,19 @@
         <v>79</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AB56" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>492</v>
+        <v>305</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8339,10 +8384,10 @@
         <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>129</v>
+        <v>306</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>493</v>
+        <v>307</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
@@ -8353,11 +8398,9 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>494</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
         <v>79</v>
       </c>
@@ -8378,18 +8421,20 @@
         <v>87</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>495</v>
+        <v>235</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>489</v>
+        <v>309</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>490</v>
+        <v>310</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>79</v>
       </c>
@@ -8437,7 +8482,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>492</v>
+        <v>313</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8455,10 +8500,10 @@
         <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>129</v>
+        <v>314</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>493</v>
+        <v>315</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
@@ -8469,7 +8514,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>496</v>
+        <v>450</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8492,16 +8537,20 @@
         <v>87</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>497</v>
+        <v>317</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>79</v>
       </c>
@@ -8549,7 +8598,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>499</v>
+        <v>321</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8567,10 +8616,10 @@
         <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>129</v>
+        <v>322</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>500</v>
+        <v>323</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -8581,7 +8630,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8589,10 +8638,10 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>79</v>
@@ -8604,15 +8653,17 @@
         <v>87</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>502</v>
+        <v>452</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>503</v>
+        <v>453</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -8661,13 +8712,13 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>505</v>
+        <v>451</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>79</v>
@@ -8676,16 +8727,16 @@
         <v>98</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>79</v>
+        <v>456</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>129</v>
+        <v>457</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>506</v>
+        <v>458</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>79</v>
+        <v>438</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -8693,7 +8744,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>507</v>
+        <v>459</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8704,7 +8755,7 @@
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>79</v>
@@ -8713,16 +8764,16 @@
         <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>370</v>
+        <v>460</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>508</v>
+        <v>461</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>509</v>
+        <v>462</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8773,13 +8824,13 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>507</v>
+        <v>459</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
@@ -8788,13 +8839,13 @@
         <v>98</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>79</v>
+        <v>463</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>262</v>
+        <v>464</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>510</v>
+        <v>465</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -8805,11 +8856,11 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>511</v>
+        <v>466</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>79</v>
+        <v>467</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8828,16 +8879,16 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>512</v>
+        <v>468</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>513</v>
+        <v>469</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>514</v>
+        <v>470</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>515</v>
+        <v>471</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8887,7 +8938,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>511</v>
+        <v>466</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -8902,18 +8953,1264 @@
         <v>98</v>
       </c>
       <c r="AJ61" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AB67" s="2"/>
+      <c r="AC67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="AK61" t="s" s="2">
+      <c r="L70" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK70" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="AL61" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN61" t="s" s="2">
+      <c r="AL70" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN72" t="s" s="2">
         <v>79</v>
       </c>
     </row>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="458">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:57:09+00:00</t>
+    <t>2022-12-01T11:23:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -783,10 +783,7 @@
     <t>Many laboratory and radiology procedure codes embed the specimen/organ system in the test order name, for example,  serum or serum/plasma glucose, or a chest x-ray. The specimen might not be recorded separately from the test code.</t>
   </si>
   <si>
-    <t>Codes for tests or services that can be carried out by a designated individual, organization or healthcare service.  For laboratory, LOINC is  (preferred)[http://build.fhir.org/terminologies.html#preferred] and a valueset using LOINC Order codes is available [here](valueset-diagnostic-requests.html).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-code</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-test-types</t>
   </si>
   <si>
     <t>Request.code</t>
@@ -804,7 +801,514 @@
     <t>Procedure.procedureCode</t>
   </si>
   <si>
-    <t>ServiceRequest.code.id</t>
+    <t>ServiceRequest.orderDetail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detailed instructions
+</t>
+  </si>
+  <si>
+    <t>Additional order information</t>
+  </si>
+  <si>
+    <t>Additional details and instructions about the how the services are to be delivered.   For example, and order for a urinary catheter may have an order detail for an external or indwelling catheter, or an order for a bandage may require additional instructions specifying how the bandage should be applied.</t>
+  </si>
+  <si>
+    <t>For information from the medical record intended to support the delivery of the requested services, use the `supportingInformation` element.</t>
+  </si>
+  <si>
+    <t>Codified order entry details which are based on order context.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/servicerequest-orderdetail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prr-1
+</t>
+  </si>
+  <si>
+    <t>NTE</t>
+  </si>
+  <si>
+    <t>ServiceRequest.quantity[x]</t>
+  </si>
+  <si>
+    <t>Quantity
+RatioRange</t>
+  </si>
+  <si>
+    <t>Service amount</t>
+  </si>
+  <si>
+    <t>An amount of service being requested which can be a quantity ( for example $1,500 home modification), a ratio ( for example, 20 half day visits per month), or a range (2.0 to 1.8 Gy per fraction).</t>
+  </si>
+  <si>
+    <t>When ordering a service the number of service items may need to be specified separately from the the service item.</t>
+  </si>
+  <si>
+    <t>.quantity</t>
+  </si>
+  <si>
+    <t>ServiceRequest.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient)
+</t>
+  </si>
+  <si>
+    <t>Individual or Entity the service is ordered for</t>
+  </si>
+  <si>
+    <t>On whom or what the service is to be performed. This is usually a human patient, but can also be requested on animals, groups of humans or animals, devices such as dialysis machines, or even locations (typically for environmental scans).</t>
+  </si>
+  <si>
+    <t>Request.subject</t>
+  </si>
+  <si>
+    <t>PID</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ].role</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>ClinicalStatement.subject</t>
+  </si>
+  <si>
+    <t>ServiceRequest.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">context
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter)
+</t>
+  </si>
+  <si>
+    <t>Encounter in which the request was created</t>
+  </si>
+  <si>
+    <t>An encounter that provides additional information about the healthcare context in which this request is made.</t>
+  </si>
+  <si>
+    <t>Request.encounter</t>
+  </si>
+  <si>
+    <t>PV1</t>
+  </si>
+  <si>
+    <t>.inboundRelationship(typeCode=COMP].source[classCode&lt;=PCPR, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>ClinicalStatement.encounter</t>
+  </si>
+  <si>
+    <t>ServiceRequest.occurrence[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schedule
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>When service should occur</t>
+  </si>
+  <si>
+    <t>The date/time at which the requested service should occur.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Request.occurrence[x]</t>
+  </si>
+  <si>
+    <t>TQ1/TQ2, OBR-7/OBR-8</t>
+  </si>
+  <si>
+    <t>.effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.planned</t>
+  </si>
+  <si>
+    <t>Procedure.procedureSchedule</t>
+  </si>
+  <si>
+    <t>occurrenceDateTime</t>
+  </si>
+  <si>
+    <t>ServiceRequest.asNeeded[x]</t>
+  </si>
+  <si>
+    <t>boolean
+CodeableConcept</t>
+  </si>
+  <si>
+    <t>Preconditions for service</t>
+  </si>
+  <si>
+    <t>If a CodeableConcept is present, it indicates the pre-condition for performing the service.  For example "pain", "on flare-up", etc.</t>
+  </si>
+  <si>
+    <t>A coded concept identifying the pre-condition that should hold prior to performing a procedure.  For example "pain", "on flare-up", etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
+  </si>
+  <si>
+    <t>boolean: precondition.negationInd (inversed - so negationInd = true means asNeeded=false CodeableConcept: precondition.observationEventCriterion[code="Assertion"].value</t>
+  </si>
+  <si>
+    <t>Proposal.prnReason.reason</t>
+  </si>
+  <si>
+    <t>ServiceRequest.authoredOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedOn
+</t>
+  </si>
+  <si>
+    <t>Date request signed</t>
+  </si>
+  <si>
+    <t>When the request transitioned to being actionable.</t>
+  </si>
+  <si>
+    <t>Request.authoredOn</t>
+  </si>
+  <si>
+    <t>ORC.9,  RF1-7 / RF1-9</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>Proposal.proposedAtTime</t>
+  </si>
+  <si>
+    <t>ServiceRequest.requester</t>
+  </si>
+  <si>
+    <t>author
+orderer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|RelatedPerson|Device)
+</t>
+  </si>
+  <si>
+    <t>Who/what is requesting service</t>
+  </si>
+  <si>
+    <t>The individual who initiated the request and has responsibility for its activation.</t>
+  </si>
+  <si>
+    <t>This not the dispatcher, but rather who is the authorizer.  This element is not intended to handle delegation which would generally be managed through the Provenance resource.</t>
+  </si>
+  <si>
+    <t>Request.requester</t>
+  </si>
+  <si>
+    <t>ORC.12, PRT</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].role</t>
+  </si>
+  <si>
+    <t>FiveWs.author</t>
+  </si>
+  <si>
+    <t>ClinicalStatement.statementAuthor</t>
+  </si>
+  <si>
+    <t>ServiceRequest.performerType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specialty
+</t>
+  </si>
+  <si>
+    <t>Performer role</t>
+  </si>
+  <si>
+    <t>Desired type of performer for doing the requested service.</t>
+  </si>
+  <si>
+    <t>This is a  role, not  a participation type.  In other words, does not describe the task but describes the capacity.  For example, “compounding pharmacy”, “psychiatrist” or “internal referral”.</t>
+  </si>
+  <si>
+    <t>Indicates specific responsibility of an individual within the care team, such as "Primary physician", "Team coordinator", "Caregiver", etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/participant-role</t>
+  </si>
+  <si>
+    <t>Request.performerType</t>
+  </si>
+  <si>
+    <t>PRT, RF!-3</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PRF].role[scoper.determinerCode=KIND].code</t>
+  </si>
+  <si>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>ServiceRequest.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">request recipient
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|HealthcareService|Patient|Device|RelatedPerson)
+</t>
+  </si>
+  <si>
+    <t>Requested performer</t>
+  </si>
+  <si>
+    <t>The desired performer for doing the requested service.  For example, the surgeon, dermatopathologist, endoscopist, etc.</t>
+  </si>
+  <si>
+    <t>If multiple performers are present, it is interpreted as a list of *alternative* performers without any preference regardless of order.  If order of preference is needed use the [request-performerOrder extension](http://hl7.org/fhir/R4/extension-request-performerorder.html).  Use CareTeam to represent a group of performers (for example, Practitioner A *and* Practitioner B).</t>
+  </si>
+  <si>
+    <t>Request.performer</t>
+  </si>
+  <si>
+    <t>PRT, Practitioner: PRD-2/PRD-7 where PRD-3 = RT; Organization: PRD-10 where PRD-3 = RT</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PRF].role[scoper.determinerCode=INSTANCE]</t>
+  </si>
+  <si>
+    <t>ServiceRequest.locationCode</t>
+  </si>
+  <si>
+    <t>Requested location</t>
+  </si>
+  <si>
+    <t>The preferred location(s) where the procedure should actually happen in coded or free text form. E.g. at home or nursing day care center.</t>
+  </si>
+  <si>
+    <t>A location type where services are delivered.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=LOC].role[scoper.determinerCode=KIND].code</t>
+  </si>
+  <si>
+    <t>ServiceRequest.locationReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Location)
+</t>
+  </si>
+  <si>
+    <t>A reference to the the preferred location(s) where the procedure should actually happen. E.g. at home or nursing day care center.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=LOC].role[scoper.determinerCode=INSTANCE]</t>
+  </si>
+  <si>
+    <t>ServiceRequest.reasonCode</t>
+  </si>
+  <si>
+    <t>Explanation/Justification for procedure or service</t>
+  </si>
+  <si>
+    <t>An explanation or justification for why this service is being requested in coded or textual form.   This is often for billing purposes.  May relate to the resources referred to in `supportingInfo`.</t>
+  </si>
+  <si>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-covid19-reason-for-assessment-or-test-not-performed</t>
+  </si>
+  <si>
+    <t>Request.reasonCode</t>
+  </si>
+  <si>
+    <t>ORC.16, RF1-10</t>
+  </si>
+  <si>
+    <t>.reasonCode</t>
+  </si>
+  <si>
+    <t>FiveWs.why[x]</t>
+  </si>
+  <si>
+    <t>ServiceRequest.reasonReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport|DocumentReference)
+</t>
+  </si>
+  <si>
+    <t>Explanation/Justification for service or service</t>
+  </si>
+  <si>
+    <t>Indicates another resource that provides a justification for why this service is being requested.   May relate to the resources referred to in `supportingInfo`.</t>
+  </si>
+  <si>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
+  </si>
+  <si>
+    <t>Request.reasonReference</t>
+  </si>
+  <si>
+    <t>ORC.16</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=RSON].target</t>
+  </si>
+  <si>
+    <t>ServiceRequest.insurance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Coverage|ClaimResponse)
+</t>
+  </si>
+  <si>
+    <t>Associated insurance coverage</t>
+  </si>
+  <si>
+    <t>Insurance plans, coverage extensions, pre-authorizations and/or pre-determinations that may be needed for delivering the requested service.</t>
+  </si>
+  <si>
+    <t>Request.insurance</t>
+  </si>
+  <si>
+    <t>IN1/IN2</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=COVBY].target</t>
+  </si>
+  <si>
+    <t>ServiceRequest.supportingInfo</t>
+  </si>
+  <si>
+    <t>Ask at order entry question
+AOE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Resource)
+</t>
+  </si>
+  <si>
+    <t>Additional clinical information</t>
+  </si>
+  <si>
+    <t>Additional clinical information about the patient or specimen that may influence the services or their interpretations.     This information includes diagnosis, clinical findings and other observations.  In laboratory ordering these are typically referred to as "ask at order entry questions (AOEs)".  This includes observations explicitly requested by the producer (filler) to provide context or supporting information needed to complete the order. For example,  reporting the amount of inspired oxygen for blood gas measurements.</t>
+  </si>
+  <si>
+    <t>To represent information about how the services are to be delivered use the `instructions` element.</t>
+  </si>
+  <si>
+    <t>Request.supportingInfo</t>
+  </si>
+  <si>
+    <t>Accompanying segments</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=PERT].target</t>
+  </si>
+  <si>
+    <t>ServiceRequest.specimen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Specimen)
+</t>
+  </si>
+  <si>
+    <t>Procedure Samples</t>
+  </si>
+  <si>
+    <t>One or more specimens that the laboratory procedure will use.</t>
+  </si>
+  <si>
+    <t>Many diagnostic procedures need a specimen, but the request itself is not actually about the specimen. This element is for when the diagnostic is requested on already existing specimens and the request points to the specimen it applies to.    Conversely, if the request is entered first with an unknown specimen, then the [Specimen](http://hl7.org/fhir/R4/specimen.html) resource points to the ServiceRequest.</t>
+  </si>
+  <si>
+    <t>SPM</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SPC].role</t>
+  </si>
+  <si>
+    <t>ServiceRequest.bodySite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">location
+</t>
+  </si>
+  <si>
+    <t>Location on Body</t>
+  </si>
+  <si>
+    <t>Anatomic location where the procedure should be performed. This is the target site.</t>
+  </si>
+  <si>
+    <t>Only used if not implicit in the code found in ServiceRequest.code.  If the use case requires BodySite to be handled as a separate resource instead of an inline coded element (e.g. to identify and track separately)  then use the standard extension [procedure-targetBodyStructure](http://hl7.org/fhir/R4/extension-procedure-targetbodystructure.html).</t>
+  </si>
+  <si>
+    <t>Knowing where the procedure is performed is important for tracking if multiple sites are possible.</t>
+  </si>
+  <si>
+    <t>Codes describing anatomical locations. May include laterality.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+  </si>
+  <si>
+    <t>targetSiteCode</t>
+  </si>
+  <si>
+    <t>Procedure.targetBodySite</t>
+  </si>
+  <si>
+    <t>ServiceRequest.note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>Any other notes and comments made about the service request. For example, internal billing notes.</t>
+  </si>
+  <si>
+    <t>Request.note</t>
+  </si>
+  <si>
+    <t>.inboundRelationship(typeCode=SUBJ].source[classCode=ANNGEN, moodCode=EVN].value[xsi:type=ST]</t>
+  </si>
+  <si>
+    <t>ClinicalStatement.additionalText</t>
+  </si>
+  <si>
+    <t>ServiceRequest.note.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -823,7 +1327,7 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>ServiceRequest.code.extension</t>
+    <t>ServiceRequest.note.extension</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -840,730 +1344,6 @@
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.coding.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.coding.extension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-test-types</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.coding.userSelected</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>ServiceRequest.orderDetail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">detailed instructions
-</t>
-  </si>
-  <si>
-    <t>Additional order information</t>
-  </si>
-  <si>
-    <t>Additional details and instructions about the how the services are to be delivered.   For example, and order for a urinary catheter may have an order detail for an external or indwelling catheter, or an order for a bandage may require additional instructions specifying how the bandage should be applied.</t>
-  </si>
-  <si>
-    <t>For information from the medical record intended to support the delivery of the requested services, use the `supportingInformation` element.</t>
-  </si>
-  <si>
-    <t>Codified order entry details which are based on order context.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/servicerequest-orderdetail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prr-1
-</t>
-  </si>
-  <si>
-    <t>NTE</t>
-  </si>
-  <si>
-    <t>ServiceRequest.quantity[x]</t>
-  </si>
-  <si>
-    <t>Quantity
-RatioRange</t>
-  </si>
-  <si>
-    <t>Service amount</t>
-  </si>
-  <si>
-    <t>An amount of service being requested which can be a quantity ( for example $1,500 home modification), a ratio ( for example, 20 half day visits per month), or a range (2.0 to 1.8 Gy per fraction).</t>
-  </si>
-  <si>
-    <t>When ordering a service the number of service items may need to be specified separately from the the service item.</t>
-  </si>
-  <si>
-    <t>.quantity</t>
-  </si>
-  <si>
-    <t>ServiceRequest.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient)
-</t>
-  </si>
-  <si>
-    <t>Individual or Entity the service is ordered for</t>
-  </si>
-  <si>
-    <t>On whom or what the service is to be performed. This is usually a human patient, but can also be requested on animals, groups of humans or animals, devices such as dialysis machines, or even locations (typically for environmental scans).</t>
-  </si>
-  <si>
-    <t>Request.subject</t>
-  </si>
-  <si>
-    <t>PID</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ].role</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>ClinicalStatement.subject</t>
-  </si>
-  <si>
-    <t>ServiceRequest.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">context
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter)
-</t>
-  </si>
-  <si>
-    <t>Encounter in which the request was created</t>
-  </si>
-  <si>
-    <t>An encounter that provides additional information about the healthcare context in which this request is made.</t>
-  </si>
-  <si>
-    <t>Request.encounter</t>
-  </si>
-  <si>
-    <t>PV1</t>
-  </si>
-  <si>
-    <t>.inboundRelationship(typeCode=COMP].source[classCode&lt;=PCPR, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>ClinicalStatement.encounter</t>
-  </si>
-  <si>
-    <t>ServiceRequest.occurrence[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schedule
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>When service should occur</t>
-  </si>
-  <si>
-    <t>The date/time at which the requested service should occur.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Request.occurrence[x]</t>
-  </si>
-  <si>
-    <t>TQ1/TQ2, OBR-7/OBR-8</t>
-  </si>
-  <si>
-    <t>.effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.planned</t>
-  </si>
-  <si>
-    <t>Procedure.procedureSchedule</t>
-  </si>
-  <si>
-    <t>occurrenceDateTime</t>
-  </si>
-  <si>
-    <t>ServiceRequest.asNeeded[x]</t>
-  </si>
-  <si>
-    <t>boolean
-CodeableConcept</t>
-  </si>
-  <si>
-    <t>Preconditions for service</t>
-  </si>
-  <si>
-    <t>If a CodeableConcept is present, it indicates the pre-condition for performing the service.  For example "pain", "on flare-up", etc.</t>
-  </si>
-  <si>
-    <t>A coded concept identifying the pre-condition that should hold prior to performing a procedure.  For example "pain", "on flare-up", etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
-  </si>
-  <si>
-    <t>boolean: precondition.negationInd (inversed - so negationInd = true means asNeeded=false CodeableConcept: precondition.observationEventCriterion[code="Assertion"].value</t>
-  </si>
-  <si>
-    <t>Proposal.prnReason.reason</t>
-  </si>
-  <si>
-    <t>ServiceRequest.authoredOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orderedOn
-</t>
-  </si>
-  <si>
-    <t>Date request signed</t>
-  </si>
-  <si>
-    <t>When the request transitioned to being actionable.</t>
-  </si>
-  <si>
-    <t>Request.authoredOn</t>
-  </si>
-  <si>
-    <t>ORC.9,  RF1-7 / RF1-9</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>Proposal.proposedAtTime</t>
-  </si>
-  <si>
-    <t>ServiceRequest.requester</t>
-  </si>
-  <si>
-    <t>author
-orderer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|RelatedPerson|Device)
-</t>
-  </si>
-  <si>
-    <t>Who/what is requesting service</t>
-  </si>
-  <si>
-    <t>The individual who initiated the request and has responsibility for its activation.</t>
-  </si>
-  <si>
-    <t>This not the dispatcher, but rather who is the authorizer.  This element is not intended to handle delegation which would generally be managed through the Provenance resource.</t>
-  </si>
-  <si>
-    <t>Request.requester</t>
-  </si>
-  <si>
-    <t>ORC.12, PRT</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].role</t>
-  </si>
-  <si>
-    <t>FiveWs.author</t>
-  </si>
-  <si>
-    <t>ClinicalStatement.statementAuthor</t>
-  </si>
-  <si>
-    <t>ServiceRequest.performerType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specialty
-</t>
-  </si>
-  <si>
-    <t>Performer role</t>
-  </si>
-  <si>
-    <t>Desired type of performer for doing the requested service.</t>
-  </si>
-  <si>
-    <t>This is a  role, not  a participation type.  In other words, does not describe the task but describes the capacity.  For example, “compounding pharmacy”, “psychiatrist” or “internal referral”.</t>
-  </si>
-  <si>
-    <t>Indicates specific responsibility of an individual within the care team, such as "Primary physician", "Team coordinator", "Caregiver", etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/participant-role</t>
-  </si>
-  <si>
-    <t>Request.performerType</t>
-  </si>
-  <si>
-    <t>PRT, RF!-3</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PRF].role[scoper.determinerCode=KIND].code</t>
-  </si>
-  <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>ServiceRequest.performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">request recipient
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|HealthcareService|Patient|Device|RelatedPerson)
-</t>
-  </si>
-  <si>
-    <t>Requested performer</t>
-  </si>
-  <si>
-    <t>The desired performer for doing the requested service.  For example, the surgeon, dermatopathologist, endoscopist, etc.</t>
-  </si>
-  <si>
-    <t>If multiple performers are present, it is interpreted as a list of *alternative* performers without any preference regardless of order.  If order of preference is needed use the [request-performerOrder extension](http://hl7.org/fhir/R4/extension-request-performerorder.html).  Use CareTeam to represent a group of performers (for example, Practitioner A *and* Practitioner B).</t>
-  </si>
-  <si>
-    <t>Request.performer</t>
-  </si>
-  <si>
-    <t>PRT, Practitioner: PRD-2/PRD-7 where PRD-3 = RT; Organization: PRD-10 where PRD-3 = RT</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PRF].role[scoper.determinerCode=INSTANCE]</t>
-  </si>
-  <si>
-    <t>ServiceRequest.locationCode</t>
-  </si>
-  <si>
-    <t>Requested location</t>
-  </si>
-  <si>
-    <t>The preferred location(s) where the procedure should actually happen in coded or free text form. E.g. at home or nursing day care center.</t>
-  </si>
-  <si>
-    <t>A location type where services are delivered.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=LOC].role[scoper.determinerCode=KIND].code</t>
-  </si>
-  <si>
-    <t>ServiceRequest.locationReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Location)
-</t>
-  </si>
-  <si>
-    <t>A reference to the the preferred location(s) where the procedure should actually happen. E.g. at home or nursing day care center.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=LOC].role[scoper.determinerCode=INSTANCE]</t>
-  </si>
-  <si>
-    <t>ServiceRequest.reasonCode</t>
-  </si>
-  <si>
-    <t>Explanation/Justification for procedure or service</t>
-  </si>
-  <si>
-    <t>An explanation or justification for why this service is being requested in coded or textual form.   This is often for billing purposes.  May relate to the resources referred to in `supportingInfo`.</t>
-  </si>
-  <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
-  </si>
-  <si>
-    <t>Diagnosis or problem codes justifying the reason for requesting the service investigation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-reason</t>
-  </si>
-  <si>
-    <t>Request.reasonCode</t>
-  </si>
-  <si>
-    <t>ORC.16, RF1-10</t>
-  </si>
-  <si>
-    <t>.reasonCode</t>
-  </si>
-  <si>
-    <t>FiveWs.why[x]</t>
-  </si>
-  <si>
-    <t>ServiceRequest.reasonCode.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.reasonCode.extension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.reasonCode.coding</t>
-  </si>
-  <si>
-    <t>ServiceRequest.reasonCode.coding.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.reasonCode.coding.extension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.reasonCode.coding.system</t>
-  </si>
-  <si>
-    <t>ServiceRequest.reasonCode.coding.version</t>
-  </si>
-  <si>
-    <t>ServiceRequest.reasonCode.coding.code</t>
-  </si>
-  <si>
-    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-covid19-reason-for-assessment-or-test-not-performed</t>
-  </si>
-  <si>
-    <t>ServiceRequest.reasonCode.coding.display</t>
-  </si>
-  <si>
-    <t>ServiceRequest.reasonCode.coding.userSelected</t>
-  </si>
-  <si>
-    <t>ServiceRequest.reasonCode.text</t>
-  </si>
-  <si>
-    <t>ServiceRequest.reasonReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport|DocumentReference)
-</t>
-  </si>
-  <si>
-    <t>Explanation/Justification for service or service</t>
-  </si>
-  <si>
-    <t>Indicates another resource that provides a justification for why this service is being requested.   May relate to the resources referred to in `supportingInfo`.</t>
-  </si>
-  <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
-  </si>
-  <si>
-    <t>Request.reasonReference</t>
-  </si>
-  <si>
-    <t>ORC.16</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=RSON].target</t>
-  </si>
-  <si>
-    <t>ServiceRequest.insurance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Coverage|ClaimResponse)
-</t>
-  </si>
-  <si>
-    <t>Associated insurance coverage</t>
-  </si>
-  <si>
-    <t>Insurance plans, coverage extensions, pre-authorizations and/or pre-determinations that may be needed for delivering the requested service.</t>
-  </si>
-  <si>
-    <t>Request.insurance</t>
-  </si>
-  <si>
-    <t>IN1/IN2</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=COVBY].target</t>
-  </si>
-  <si>
-    <t>ServiceRequest.supportingInfo</t>
-  </si>
-  <si>
-    <t>Ask at order entry question
-AOE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource)
-</t>
-  </si>
-  <si>
-    <t>Additional clinical information</t>
-  </si>
-  <si>
-    <t>Additional clinical information about the patient or specimen that may influence the services or their interpretations.     This information includes diagnosis, clinical findings and other observations.  In laboratory ordering these are typically referred to as "ask at order entry questions (AOEs)".  This includes observations explicitly requested by the producer (filler) to provide context or supporting information needed to complete the order. For example,  reporting the amount of inspired oxygen for blood gas measurements.</t>
-  </si>
-  <si>
-    <t>To represent information about how the services are to be delivered use the `instructions` element.</t>
-  </si>
-  <si>
-    <t>Request.supportingInfo</t>
-  </si>
-  <si>
-    <t>Accompanying segments</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=PERT].target</t>
-  </si>
-  <si>
-    <t>ServiceRequest.specimen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Specimen)
-</t>
-  </si>
-  <si>
-    <t>Procedure Samples</t>
-  </si>
-  <si>
-    <t>One or more specimens that the laboratory procedure will use.</t>
-  </si>
-  <si>
-    <t>Many diagnostic procedures need a specimen, but the request itself is not actually about the specimen. This element is for when the diagnostic is requested on already existing specimens and the request points to the specimen it applies to.    Conversely, if the request is entered first with an unknown specimen, then the [Specimen](http://hl7.org/fhir/R4/specimen.html) resource points to the ServiceRequest.</t>
-  </si>
-  <si>
-    <t>SPM</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SPC].role</t>
-  </si>
-  <si>
-    <t>ServiceRequest.bodySite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">location
-</t>
-  </si>
-  <si>
-    <t>Location on Body</t>
-  </si>
-  <si>
-    <t>Anatomic location where the procedure should be performed. This is the target site.</t>
-  </si>
-  <si>
-    <t>Only used if not implicit in the code found in ServiceRequest.code.  If the use case requires BodySite to be handled as a separate resource instead of an inline coded element (e.g. to identify and track separately)  then use the standard extension [procedure-targetBodyStructure](http://hl7.org/fhir/R4/extension-procedure-targetbodystructure.html).</t>
-  </si>
-  <si>
-    <t>Knowing where the procedure is performed is important for tracking if multiple sites are possible.</t>
-  </si>
-  <si>
-    <t>Codes describing anatomical locations. May include laterality.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
-  </si>
-  <si>
-    <t>targetSiteCode</t>
-  </si>
-  <si>
-    <t>Procedure.targetBodySite</t>
-  </si>
-  <si>
-    <t>ServiceRequest.note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annotation
-</t>
-  </si>
-  <si>
-    <t>Any other notes and comments made about the service request. For example, internal billing notes.</t>
-  </si>
-  <si>
-    <t>Request.note</t>
-  </si>
-  <si>
-    <t>.inboundRelationship(typeCode=SUBJ].source[classCode=ANNGEN, moodCode=EVN].value[xsi:type=ST]</t>
-  </si>
-  <si>
-    <t>ClinicalStatement.additionalText</t>
-  </si>
-  <si>
-    <t>ServiceRequest.note.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.note.extension</t>
   </si>
   <si>
     <t>ServiceRequest.note.author[x]</t>
@@ -1967,7 +1747,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN72"/>
+  <dimension ref="A1:AN50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1976,7 +1756,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="35.71484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="20.203125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1999,7 +1779,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="126.34765625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="104.18359375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
@@ -4482,13 +4262,11 @@
         <v>79</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="X22" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="X22" s="2"/>
+      <c r="Y22" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>79</v>
@@ -4521,35 +4299,35 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>254</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>79</v>
@@ -4558,18 +4336,20 @@
         <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>79</v>
@@ -4594,13 +4374,13 @@
         <v>79</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>79</v>
+        <v>260</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>79</v>
@@ -4618,50 +4398,50 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>79</v>
+        <v>261</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>79</v>
+        <v>262</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>79</v>
@@ -4670,21 +4450,21 @@
         <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>132</v>
+        <v>264</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>133</v>
+        <v>265</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4720,40 +4500,40 @@
         <v>79</v>
       </c>
       <c r="AA24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AB24" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>266</v>
-      </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>79</v>
+        <v>262</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -4764,7 +4544,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4772,10 +4552,10 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>79</v>
@@ -4787,20 +4567,16 @@
         <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N25" t="s" s="2">
         <v>272</v>
       </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -4848,13 +4624,13 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>79</v>
@@ -4863,7 +4639,7 @@
         <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>79</v>
+        <v>273</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>274</v>
@@ -4872,23 +4648,23 @@
         <v>275</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>79</v>
+        <v>276</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>79</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>79</v>
+        <v>279</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>86</v>
@@ -4900,16 +4676,16 @@
         <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4960,7 +4736,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4972,38 +4748,38 @@
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>79</v>
+        <v>283</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>79</v>
+        <v>284</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>79</v>
+        <v>286</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>79</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>131</v>
+        <v>289</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>79</v>
@@ -5012,20 +4788,18 @@
         <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>132</v>
+        <v>290</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>133</v>
+        <v>291</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5062,59 +4836,59 @@
         <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="AB27" s="2"/>
       <c r="AC27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>79</v>
+        <v>295</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>79</v>
+        <v>296</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>260</v>
+        <v>297</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>79</v>
+        <v>298</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>79</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="C28" t="s" s="2">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>86</v>
@@ -5129,20 +4903,16 @@
         <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>100</v>
+        <v>290</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5190,7 +4960,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5205,24 +4975,24 @@
         <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>79</v>
+        <v>295</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>79</v>
+        <v>298</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>79</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5245,17 +5015,15 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>256</v>
+        <v>302</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5280,13 +5048,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>79</v>
+        <v>305</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>79</v>
+        <v>306</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5304,7 +5072,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5322,25 +5090,25 @@
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>79</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>79</v>
+        <v>310</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5359,18 +5127,16 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>106</v>
+        <v>290</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="M30" s="2"/>
-      <c r="N30" t="s" s="2">
-        <v>296</v>
-      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5394,11 +5160,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="X30" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y30" t="s" s="2">
-        <v>297</v>
+        <v>79</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5416,7 +5184,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5431,32 +5199,32 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>79</v>
+        <v>313</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>79</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>79</v>
+        <v>319</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>86</v>
@@ -5471,18 +5239,18 @@
         <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>256</v>
+        <v>320</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
@@ -5530,7 +5298,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5545,28 +5313,28 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>79</v>
+        <v>324</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>79</v>
+        <v>327</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>79</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>79</v>
+        <v>330</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5585,20 +5353,18 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
@@ -5622,13 +5388,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>79</v>
+        <v>334</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>79</v>
+        <v>335</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -5646,7 +5412,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5661,16 +5427,16 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>79</v>
+        <v>339</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -5678,18 +5444,18 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>79</v>
+        <v>341</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>79</v>
@@ -5701,20 +5467,18 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>256</v>
+        <v>342</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
       </c>
@@ -5762,13 +5526,13 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>79</v>
@@ -5777,16 +5541,16 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>79</v>
+        <v>339</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -5794,11 +5558,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5820,14 +5584,12 @@
         <v>214</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -5855,10 +5617,10 @@
         <v>219</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>330</v>
+        <v>353</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>79</v>
@@ -5876,7 +5638,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5885,7 +5647,7 @@
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>331</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>98</v>
@@ -5894,21 +5656,21 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>332</v>
+        <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>252</v>
+        <v>354</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>79</v>
+        <v>339</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>254</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5916,7 +5678,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>86</v>
@@ -5931,18 +5693,16 @@
         <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="M35" s="2"/>
-      <c r="N35" t="s" s="2">
-        <v>337</v>
-      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>79</v>
       </c>
@@ -5990,13 +5750,13 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -6008,13 +5768,13 @@
         <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>332</v>
+        <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>79</v>
+        <v>339</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -6022,7 +5782,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6030,10 +5790,10 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>79</v>
@@ -6045,15 +5805,17 @@
         <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>340</v>
+        <v>214</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>79</v>
@@ -6078,13 +5840,11 @@
         <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="X36" s="2"/>
       <c r="Y36" t="s" s="2">
-        <v>79</v>
+        <v>363</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
@@ -6102,13 +5862,13 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>79</v>
@@ -6117,35 +5877,35 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>347</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>349</v>
+        <v>79</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>79</v>
@@ -6157,15 +5917,17 @@
         <v>87</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6214,13 +5976,13 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
@@ -6229,35 +5991,35 @@
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>79</v>
@@ -6266,16 +6028,16 @@
         <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6314,23 +6076,25 @@
         <v>79</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AB38" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>364</v>
+        <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>79</v>
@@ -6339,37 +6103,35 @@
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>368</v>
+        <v>79</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>369</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>79</v>
@@ -6378,18 +6140,20 @@
         <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
@@ -6438,13 +6202,13 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6453,24 +6217,24 @@
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>368</v>
+        <v>79</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>369</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6478,7 +6242,7 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>86</v>
@@ -6493,15 +6257,17 @@
         <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -6526,13 +6292,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>375</v>
+        <v>79</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>376</v>
+        <v>79</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6550,13 +6316,13 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
@@ -6568,32 +6334,32 @@
         <v>79</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>79</v>
+        <v>397</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>377</v>
+        <v>398</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>378</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>79</v>
@@ -6605,16 +6371,20 @@
         <v>87</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>360</v>
+        <v>214</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6638,13 +6408,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>79</v>
+        <v>405</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>79</v>
+        <v>406</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6662,13 +6432,13 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>79</v>
@@ -6677,32 +6447,32 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>383</v>
+        <v>79</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>386</v>
+        <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>387</v>
+        <v>408</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>388</v>
+        <v>409</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>389</v>
+        <v>79</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>86</v>
@@ -6714,20 +6484,18 @@
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>391</v>
+        <v>48</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -6776,13 +6544,13 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>388</v>
+        <v>409</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
@@ -6791,28 +6559,28 @@
         <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>395</v>
+        <v>262</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>397</v>
+        <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>398</v>
+        <v>414</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>400</v>
+        <v>79</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6828,20 +6596,18 @@
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>214</v>
+        <v>416</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
@@ -6866,13 +6632,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>404</v>
+        <v>79</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>405</v>
+        <v>79</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -6890,7 +6656,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6902,19 +6668,19 @@
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>407</v>
+        <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>409</v>
+        <v>79</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -6922,11 +6688,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>411</v>
+        <v>131</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6942,19 +6708,19 @@
         <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>412</v>
+        <v>132</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>413</v>
+        <v>133</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>415</v>
+        <v>135</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6992,19 +6758,19 @@
         <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>79</v>
+        <v>423</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>79</v>
+        <v>424</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>79</v>
+        <v>425</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7016,19 +6782,19 @@
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>416</v>
+        <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>417</v>
+        <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>409</v>
+        <v>79</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7036,7 +6802,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7047,7 +6813,7 @@
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>79</v>
@@ -7059,15 +6825,17 @@
         <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>214</v>
+        <v>428</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7092,37 +6860,35 @@
         <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>422</v>
+        <v>79</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>423</v>
+        <v>79</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="AB45" s="2"/>
       <c r="AC45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>79</v>
+        <v>425</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
@@ -7134,13 +6900,13 @@
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>409</v>
+        <v>79</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7148,15 +6914,17 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="B46" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="C46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>86</v>
@@ -7171,15 +6939,17 @@
         <v>87</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
@@ -7228,13 +6998,13 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
@@ -7246,13 +7016,13 @@
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>409</v>
+        <v>79</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7260,7 +7030,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7271,7 +7041,7 @@
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7283,17 +7053,15 @@
         <v>87</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>214</v>
+        <v>290</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7318,13 +7086,13 @@
         <v>79</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>433</v>
+        <v>79</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>79</v>
@@ -7342,13 +7110,13 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
@@ -7357,16 +7125,16 @@
         <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>435</v>
+        <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>436</v>
+        <v>129</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>438</v>
+        <v>79</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7374,7 +7142,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7382,7 +7150,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>86</v>
@@ -7394,16 +7162,16 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>256</v>
+        <v>442</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>257</v>
+        <v>443</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>258</v>
+        <v>444</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7454,10 +7222,10 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>259</v>
+        <v>445</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>86</v>
@@ -7466,16 +7234,16 @@
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>260</v>
+        <v>446</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7486,18 +7254,18 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>79</v>
@@ -7506,20 +7274,18 @@
         <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>132</v>
+        <v>416</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>133</v>
+        <v>448</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -7556,40 +7322,40 @@
         <v>79</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>263</v>
+        <v>79</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>266</v>
+        <v>447</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>79</v>
+        <v>262</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>260</v>
+        <v>450</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7600,7 +7366,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7620,23 +7386,21 @@
         <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>268</v>
+        <v>452</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>269</v>
+        <v>453</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>270</v>
+        <v>454</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
@@ -7684,7 +7448,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>273</v>
+        <v>451</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7699,2518 +7463,18 @@
         <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>79</v>
+        <v>456</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>274</v>
+        <v>129</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>275</v>
+        <v>457</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F51" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F53" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F54" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F55" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="X55" s="2"/>
-      <c r="Y55" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F56" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F57" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F58" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P61" s="2"/>
-      <c r="Q61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="F62" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P62" s="2"/>
-      <c r="Q62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P63" s="2"/>
-      <c r="Q63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F64" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P64" s="2"/>
-      <c r="Q64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F65" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AB67" s="2"/>
-      <c r="AC67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN72" t="s" s="2">
         <v>79</v>
       </c>
     </row>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:23:26+00:00</t>
+    <t>2022-12-01T11:32:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:32:02+00:00</t>
+    <t>2022-12-01T11:40:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:40:36+00:00</t>
+    <t>2022-12-01T11:55:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:55:49+00:00</t>
+    <t>2022-12-01T13:09:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T13:09:32+00:00</t>
+    <t>2022-12-01T13:41:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T13:41:09+00:00</t>
+    <t>2022-12-01T13:59:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T13:59:25+00:00</t>
+    <t>2022-12-01T14:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T14:05:48+00:00</t>
+    <t>2022-12-01T14:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T14:38:52+00:00</t>
+    <t>2022-12-01T14:45:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T14:45:46+00:00</t>
+    <t>2022-12-01T15:02:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T15:02:19+00:00</t>
+    <t>2022-12-01T15:58:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T15:58:18+00:00</t>
+    <t>2022-12-01T17:22:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>OpenHIE</t>
+    <t>Jembi Health Systems</t>
   </si>
   <si>
     <t>Contact</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-lab-order</t>
+    <t>https://openhie.github.io/cares-covid-ig/StructureDefinition/covid19-lab-order</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.1.0-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:22:13+00:00</t>
+    <t>2022-12-01T17:41:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Jembi Health Systems</t>
+    <t>OpenHIE</t>
   </si>
   <si>
     <t>Contact</t>
@@ -783,7 +783,7 @@
     <t>Many laboratory and radiology procedure codes embed the specimen/organ system in the test order name, for example,  serum or serum/plasma glucose, or a chest x-ray. The specimen might not be recorded separately from the test code.</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-test-types</t>
+    <t>https://openhie.github.io/cares-covid-ig/ValueSet/vs-test-types</t>
   </si>
   <si>
     <t>Request.code</t>
@@ -1145,7 +1145,7 @@
     <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-covid19-reason-for-assessment-or-test-not-performed</t>
+    <t>https://openhie.github.io/cares-covid-ig/ValueSet/vs-covid19-reason-for-assessment-or-test-not-performed</t>
   </si>
   <si>
     <t>Request.reasonCode</t>
@@ -1780,7 +1780,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="126.34765625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="104.18359375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.78515625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:41:14+00:00</t>
+    <t>2022-12-01T17:51:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>OpenHIE</t>
+    <t>Jembi Health Systems</t>
   </si>
   <si>
     <t>Contact</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://openhie.github.io/cares-covid-ig/StructureDefinition/covid19-lab-order</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-lab-order</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:51:39+00:00</t>
+    <t>2022-12-01T17:57:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -783,7 +783,7 @@
     <t>Many laboratory and radiology procedure codes embed the specimen/organ system in the test order name, for example,  serum or serum/plasma glucose, or a chest x-ray. The specimen might not be recorded separately from the test code.</t>
   </si>
   <si>
-    <t>https://openhie.github.io/cares-covid-ig/ValueSet/vs-test-types</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-test-types</t>
   </si>
   <si>
     <t>Request.code</t>
@@ -1145,7 +1145,7 @@
     <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
   </si>
   <si>
-    <t>https://openhie.github.io/cares-covid-ig/ValueSet/vs-covid19-reason-for-assessment-or-test-not-performed</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-covid19-reason-for-assessment-or-test-not-performed</t>
   </si>
   <si>
     <t>Request.reasonCode</t>
@@ -1780,7 +1780,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="126.34765625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.78515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="104.18359375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:57:12+00:00</t>
+    <t>2022-12-01T19:12:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T19:12:42+00:00</t>
+    <t>2022-12-01T19:29:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T19:29:16+00:00</t>
+    <t>2022-12-02T05:56:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T05:56:29+00:00</t>
+    <t>2022-12-02T06:27:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2153" uniqueCount="515">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T06:27:17+00:00</t>
+    <t>2022-12-02T09:31:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -474,6 +474,16 @@
     <t>The identifier.type element is used to distinguish between the identifiers assigned by the orderer (known as the 'Placer' in HL7 v2) and the producer of the observations in response to the order (known as the 'Filler' in HL7 v2).  For further discussion and examples see the resource notes section below.</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:system}
+</t>
+  </si>
+  <si>
+    <t>Slice based on the type of identifier</t>
+  </si>
+  <si>
+    <t>openAtEnd</t>
+  </si>
+  <si>
     <t>Request.identifier</t>
   </si>
   <si>
@@ -487,6 +497,212 @@
   </si>
   <si>
     <t>ClinicalStatement.identifier</t>
+  </si>
+  <si>
+    <t>FILL</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/covid19-casereporting/identifier/lab-order-identifier</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
     <t>ServiceRequest.instantiatesCanonical</t>
@@ -621,9 +837,6 @@
     <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>The status of a service order.</t>
   </si>
   <si>
@@ -676,10 +889,6 @@
   </si>
   <si>
     <t>ServiceRequest.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
   </si>
   <si>
     <t>Classification of service</t>
@@ -1311,39 +1520,7 @@
     <t>ServiceRequest.note.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>ServiceRequest.note.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>ServiceRequest.note.author[x]</t>
@@ -1369,10 +1546,6 @@
   </si>
   <si>
     <t>authorReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
   </si>
   <si>
     <t>ServiceRequest.note.time</t>
@@ -1747,7 +1920,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN50"/>
+  <dimension ref="A1:AN59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2957,7 +3130,7 @@
         <v>86</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>79</v>
@@ -3016,16 +3189,16 @@
         <v>79</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="AC11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>143</v>
@@ -3043,35 +3216,37 @@
         <v>98</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="C12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>79</v>
@@ -3083,16 +3258,16 @@
         <v>87</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3142,7 +3317,7 @@
         <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -3157,24 +3332,24 @@
         <v>98</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>79</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3185,7 +3360,7 @@
         <v>77</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>79</v>
@@ -3194,20 +3369,18 @@
         <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>79</v>
@@ -3262,22 +3435,22 @@
         <v>77</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>159</v>
+        <v>79</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>79</v>
@@ -3288,11 +3461,11 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3308,18 +3481,20 @@
         <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>79</v>
@@ -3356,19 +3531,19 @@
         <v>79</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="AC14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -3380,16 +3555,16 @@
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>79</v>
@@ -3400,39 +3575,43 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>175</v>
+        <v>79</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>176</v>
+        <v>106</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="O15" t="s" s="2">
         <v>79</v>
       </c>
@@ -3456,13 +3635,13 @@
         <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>79</v>
+        <v>174</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>79</v>
+        <v>175</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>79</v>
@@ -3480,13 +3659,13 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>79</v>
@@ -3495,13 +3674,13 @@
         <v>98</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>179</v>
+        <v>79</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>180</v>
+        <v>129</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>79</v>
@@ -3512,11 +3691,11 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3535,19 +3714,19 @@
         <v>87</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>79</v>
@@ -3572,13 +3751,13 @@
         <v>79</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>79</v>
@@ -3596,7 +3775,7 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3611,13 +3790,13 @@
         <v>98</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>188</v>
+        <v>79</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>189</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>79</v>
@@ -3628,7 +3807,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3645,36 +3824,38 @@
         <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="R17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>79</v>
@@ -3686,34 +3867,34 @@
         <v>79</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="Y17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>191</v>
-      </c>
       <c r="AF17" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>86</v>
@@ -3725,24 +3906,24 @@
         <v>98</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AL17" t="s" s="2">
-        <v>200</v>
-      </c>
       <c r="AM17" t="s" s="2">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>202</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3759,22 +3940,22 @@
         <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3785,10 +3966,10 @@
         <v>79</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>79</v>
@@ -3800,13 +3981,13 @@
         <v>79</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>79</v>
@@ -3824,10 +4005,10 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
@@ -3839,16 +4020,16 @@
         <v>98</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>129</v>
+        <v>206</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>79</v>
@@ -3856,7 +4037,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3867,7 +4048,7 @@
         <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>79</v>
@@ -3879,20 +4060,16 @@
         <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>79</v>
       </c>
@@ -3916,13 +4093,13 @@
         <v>79</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>79</v>
@@ -3940,13 +4117,13 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>79</v>
@@ -3958,13 +4135,13 @@
         <v>79</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>79</v>
@@ -3972,7 +4149,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3995,22 +4172,22 @@
         <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>106</v>
+        <v>216</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P20" t="s" s="2">
-        <v>227</v>
-      </c>
+      <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
         <v>79</v>
       </c>
@@ -4030,13 +4207,13 @@
         <v>79</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>79</v>
@@ -4054,7 +4231,7 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4069,16 +4246,16 @@
         <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>79</v>
@@ -4086,7 +4263,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4097,38 +4274,34 @@
         <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P21" t="s" s="2">
-        <v>240</v>
-      </c>
+      <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4172,13 +4345,13 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>79</v>
@@ -4187,13 +4360,13 @@
         <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>79</v>
+        <v>229</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>79</v>
@@ -4204,18 +4377,18 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>244</v>
+        <v>79</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>79</v>
@@ -4227,16 +4400,16 @@
         <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>214</v>
+        <v>100</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4262,11 +4435,13 @@
         <v>79</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="X22" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y22" t="s" s="2">
-        <v>248</v>
+        <v>79</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>79</v>
@@ -4284,13 +4459,13 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>79</v>
@@ -4299,28 +4474,28 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>252</v>
+        <v>79</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4339,17 +4514,15 @@
         <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>79</v>
@@ -4374,13 +4547,13 @@
         <v>79</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>259</v>
+        <v>79</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>260</v>
+        <v>79</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>79</v>
@@ -4398,7 +4571,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4407,41 +4580,41 @@
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>261</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>79</v>
+        <v>241</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>79</v>
+        <v>245</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>79</v>
@@ -4453,18 +4626,16 @@
         <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="M24" s="2"/>
-      <c r="N24" t="s" s="2">
-        <v>267</v>
-      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4512,13 +4683,13 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
@@ -4527,13 +4698,13 @@
         <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>79</v>
+        <v>249</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -4544,15 +4715,15 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>86</v>
@@ -4567,16 +4738,20 @@
         <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>270</v>
+        <v>144</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -4624,10 +4799,10 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>86</v>
@@ -4639,28 +4814,28 @@
         <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>276</v>
+        <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>277</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>279</v>
+        <v>79</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4673,21 +4848,23 @@
         <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>280</v>
+        <v>106</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -4712,13 +4889,13 @@
         <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>79</v>
+        <v>174</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>79</v>
+        <v>265</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>79</v>
@@ -4736,10 +4913,10 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>86</v>
@@ -4751,28 +4928,28 @@
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>287</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>289</v>
+        <v>79</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4785,21 +4962,23 @@
         <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>290</v>
+        <v>106</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -4809,7 +4988,7 @@
         <v>79</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>79</v>
+        <v>276</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>79</v>
@@ -4824,32 +5003,34 @@
         <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>79</v>
+        <v>174</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>79</v>
+        <v>277</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AB27" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>294</v>
+        <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>86</v>
@@ -4861,37 +5042,35 @@
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>296</v>
+        <v>129</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>299</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>289</v>
+        <v>79</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>79</v>
@@ -4903,16 +5082,20 @@
         <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>79</v>
       </c>
@@ -4936,13 +5119,13 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>79</v>
+        <v>287</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>79</v>
+        <v>288</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
@@ -4960,13 +5143,13 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
@@ -4975,24 +5158,24 @@
         <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>295</v>
+        <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>299</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5015,20 +5198,22 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>302</v>
+        <v>106</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="Q29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5048,13 +5233,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5072,7 +5257,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5087,28 +5272,28 @@
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>79</v>
+        <v>298</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>79</v>
+        <v>299</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>79</v>
+        <v>301</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>308</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>310</v>
+        <v>79</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5121,26 +5306,32 @@
         <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P30" s="2"/>
+      <c r="P30" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="Q30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5184,7 +5375,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5199,32 +5390,32 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>314</v>
+        <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>316</v>
+        <v>79</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>317</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>86</v>
@@ -5239,16 +5430,16 @@
         <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>320</v>
+        <v>180</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5274,13 +5465,11 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X31" s="2"/>
       <c r="Y31" t="s" s="2">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
@@ -5298,7 +5487,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5313,35 +5502,35 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>79</v>
@@ -5353,16 +5542,16 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5388,13 +5577,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>219</v>
+        <v>287</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -5412,50 +5601,50 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH32" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>336</v>
+        <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>339</v>
+        <v>79</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>79</v>
+        <v>321</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>341</v>
+        <v>79</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>79</v>
@@ -5467,18 +5656,18 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
       </c>
@@ -5526,13 +5715,13 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>79</v>
@@ -5541,16 +5730,16 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>346</v>
+        <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>339</v>
+        <v>79</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -5558,7 +5747,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5566,10 +5755,10 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>79</v>
@@ -5581,13 +5770,13 @@
         <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>214</v>
+        <v>338</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5614,13 +5803,13 @@
         <v>79</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>352</v>
+        <v>79</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>353</v>
+        <v>79</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>79</v>
@@ -5638,13 +5827,13 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>79</v>
@@ -5653,28 +5842,28 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>79</v>
+        <v>341</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>79</v>
+        <v>342</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>79</v>
+        <v>347</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5693,13 +5882,13 @@
         <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5750,13 +5939,13 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -5765,35 +5954,35 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>79</v>
+        <v>351</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>79</v>
+        <v>355</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>79</v>
@@ -5805,17 +5994,15 @@
         <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>214</v>
+        <v>358</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>362</v>
-      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>79</v>
@@ -5840,35 +6027,35 @@
         <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="X36" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y36" t="s" s="2">
-        <v>363</v>
+        <v>79</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="AB36" s="2"/>
       <c r="AC36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>79</v>
+        <v>362</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>79</v>
@@ -5877,35 +6064,37 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B37" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>79</v>
@@ -5917,17 +6106,15 @@
         <v>87</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -5976,13 +6163,13 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
@@ -5991,24 +6178,24 @@
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6019,7 +6206,7 @@
         <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>79</v>
@@ -6028,16 +6215,16 @@
         <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6064,13 +6251,13 @@
         <v>79</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>79</v>
+        <v>287</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>79</v>
+        <v>373</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>79</v>
+        <v>374</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>79</v>
@@ -6088,13 +6275,13 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>79</v>
@@ -6103,35 +6290,35 @@
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>380</v>
+        <v>79</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>381</v>
+        <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>79</v>
+        <v>376</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>79</v>
@@ -6140,20 +6327,18 @@
         <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>385</v>
+        <v>358</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
@@ -6202,13 +6387,13 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6217,28 +6402,28 @@
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>79</v>
+        <v>384</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>79</v>
+        <v>385</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>79</v>
+        <v>387</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6257,16 +6442,16 @@
         <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6316,13 +6501,13 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
@@ -6331,35 +6516,35 @@
         <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>79</v>
+        <v>392</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>79</v>
+        <v>395</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>79</v>
+        <v>396</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>79</v>
@@ -6371,20 +6556,18 @@
         <v>87</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="L41" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>404</v>
-      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6408,13 +6591,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>219</v>
+        <v>287</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6432,13 +6615,13 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>79</v>
@@ -6447,35 +6630,35 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>79</v>
+        <v>404</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="AM41" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AN41" t="s" s="2">
-        <v>408</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>79</v>
+        <v>409</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>79</v>
@@ -6484,18 +6667,20 @@
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>410</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>48</v>
+        <v>411</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -6544,7 +6729,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6559,24 +6744,24 @@
         <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>262</v>
+        <v>415</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>79</v>
+        <v>407</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>414</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6587,7 +6772,7 @@
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>79</v>
@@ -6596,16 +6781,16 @@
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>416</v>
+        <v>180</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6632,13 +6817,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>79</v>
+        <v>287</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>79</v>
+        <v>420</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>79</v>
+        <v>421</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -6656,19 +6841,19 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>79</v>
@@ -6677,10 +6862,10 @@
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>79</v>
+        <v>407</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -6688,18 +6873,18 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>79</v>
@@ -6708,20 +6893,18 @@
         <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>132</v>
+        <v>424</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>133</v>
+        <v>418</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -6758,19 +6941,19 @@
         <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE44" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6782,7 +6965,7 @@
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>79</v>
@@ -6791,10 +6974,10 @@
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>79</v>
+        <v>407</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -6813,7 +6996,7 @@
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>79</v>
@@ -6825,16 +7008,16 @@
         <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6860,35 +7043,35 @@
         <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X45" s="2"/>
       <c r="Y45" t="s" s="2">
-        <v>79</v>
+        <v>431</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AB45" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>425</v>
+        <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
@@ -6897,16 +7080,16 @@
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>79</v>
+        <v>432</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>129</v>
+        <v>433</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -6914,11 +7097,9 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
         <v>79</v>
       </c>
@@ -6927,7 +7108,7 @@
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -6939,16 +7120,16 @@
         <v>87</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6998,13 +7179,13 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
@@ -7013,16 +7194,16 @@
         <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>79</v>
+        <v>441</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>129</v>
+        <v>442</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7030,7 +7211,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7041,7 +7222,7 @@
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7050,16 +7231,16 @@
         <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>290</v>
+        <v>445</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7110,13 +7291,13 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
@@ -7125,13 +7306,13 @@
         <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>79</v>
+        <v>448</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>129</v>
+        <v>449</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7142,18 +7323,18 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>79</v>
+        <v>452</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>79</v>
@@ -7162,18 +7343,20 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7222,13 +7405,13 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
@@ -7237,13 +7420,13 @@
         <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>79</v>
+        <v>457</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>129</v>
+        <v>458</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7254,7 +7437,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7262,7 +7445,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>86</v>
@@ -7277,15 +7460,17 @@
         <v>87</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>416</v>
+        <v>461</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -7334,13 +7519,13 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>79</v>
@@ -7352,10 +7537,10 @@
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>262</v>
+        <v>465</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7366,11 +7551,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>79</v>
+        <v>468</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7386,21 +7571,23 @@
         <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>452</v>
+        <v>180</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
@@ -7424,13 +7611,13 @@
         <v>79</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>79</v>
+        <v>287</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>79</v>
+        <v>473</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>79</v>
+        <v>474</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>79</v>
@@ -7448,7 +7635,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7463,18 +7650,1034 @@
         <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>456</v>
+        <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AB54" s="2"/>
+      <c r="AC54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="AL50" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN50" t="s" s="2">
+      <c r="AL54" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>79</v>
       </c>
     </row>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T09:31:17+00:00</t>
+    <t>2022-12-02T11:54:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T13:26:54+00:00</t>
+    <t>2023-01-11T14:08:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T14:08:01+00:00</t>
+    <t>2023-01-11T15:22:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T15:22:07+00:00</t>
+    <t>2023-01-11T16:26:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
